--- a/medicine/Handicap/Ari_Ne'eman/Ari_Ne'eman.xlsx
+++ b/medicine/Handicap/Ari_Ne'eman/Ari_Ne'eman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ari_Ne%27eman</t>
+          <t>Ari_Ne'eman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ari Ne'eman (prononcé ne-eh-man), né le 10 décembre 1987, est un militant américain du mouvement pour les droits des personnes autistes qui a cofondé l'Autistic Self Advocacy Network en 2006[1]. Le 16 décembre 2009, le président des États-Unis, Barack Obama, a annoncé que Ari Ne'eman serait nommé au Conseil National sur le Handicap[2]. Ne'eman a été confirmé à l'unanimité par le Sénat des États-Unis pour siéger au Conseil le 22 juin 2010[3]. Il a présidé le Council's Policy &amp; Program Evaluation Committee. Ne'eman a un diagnostic de syndrome d'Asperger, ce qui fait de lui le premier autiste à siéger au conseil[4]. En 2015, Ne'eman a été retiré du Conseil National sur le Handicap[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ari Ne'eman (prononcé ne-eh-man), né le 10 décembre 1987, est un militant américain du mouvement pour les droits des personnes autistes qui a cofondé l'Autistic Self Advocacy Network en 2006. Le 16 décembre 2009, le président des États-Unis, Barack Obama, a annoncé que Ari Ne'eman serait nommé au Conseil National sur le Handicap. Ne'eman a été confirmé à l'unanimité par le Sénat des États-Unis pour siéger au Conseil le 22 juin 2010. Il a présidé le Council's Policy &amp; Program Evaluation Committee. Ne'eman a un diagnostic de syndrome d'Asperger, ce qui fait de lui le premier autiste à siéger au conseil. En 2015, Ne'eman a été retiré du Conseil National sur le Handicap.
 </t>
         </is>
       </c>
